--- a/kelantan_prn_final.xlsx
+++ b/kelantan_prn_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mohamed Farid Mohamed Zawawi </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">Bahari Mohamad Nor </t>
@@ -287,7 +284,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,13 +295,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -772,148 +762,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2361,8 +2351,8 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
-        <v>81</v>
+      <c r="B78">
+        <v>3</v>
       </c>
       <c r="C78">
         <v>26</v>
@@ -2373,10 +2363,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="s">
         <v>81</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79">
         <v>27</v>
@@ -2387,10 +2377,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
       <c r="C80">
         <v>30</v>
@@ -2401,10 +2391,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
       </c>
       <c r="C81">
         <v>30</v>
@@ -2415,10 +2405,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82">
         <v>32</v>
@@ -2429,10 +2419,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
       </c>
       <c r="C83">
         <v>32</v>
